--- a/biology/Botanique/Muntingiaceae/Muntingiaceae.xlsx
+++ b/biology/Botanique/Muntingiaceae/Muntingiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Muntingiacées regroupe des plantes dicotylédones, appartenant à l'ordre des Malvales ; elle comprend 2-3 espèces réparties en 2-3 genres.
 Ce sont des arbres ou des arbustes, originaires d'Amérique tropicale.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Muntingia, donné en hommage au botaniste allemand Abraham Munting (en) (1626–1683), professeur de botanique à Groningen, qui succéda à son père à la direction du jardin botanique Hortus Haren (en), poste qui, à son décès, fut à son tour occupé par son fils[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Muntingia, donné en hommage au botaniste allemand Abraham Munting (en) (1626–1683), professeur de botanique à Groningen, qui succéda à son père à la direction du jardin botanique Hortus Haren (en), poste qui, à son décès, fut à son tour occupé par son fils.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille n'existe pas, les genres qu'elle contient étant classés dans la famille des Tiliacées.
-La classification phylogénétique APG (1998)[3] en fait une famille particulière classée dans l'ordre des Malvales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas, les genres qu'elle contient étant classés dans la famille des Tiliacées.
+La classification phylogénétique APG (1998) en fait une famille particulière classée dans l'ordre des Malvales.
 </t>
         </is>
       </c>
@@ -576,16 +592,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (16 octobre 2016)[4] et DELTA Angio           (16 octobre 2016)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (16 octobre 2016) et DELTA Angio           (16 octobre 2016) :
 Dicraspidia (pt) Standl.
 Muntingia
 Neotessmannia (en) Burret
-Selon NCBI  (16 octobre 2016)[6] :
+Selon NCBI  (16 octobre 2016) :
 Dicraspidia
 Muntingia
-Selon ITIS      (16 octobre 2016)[7] :
+Selon ITIS      (16 octobre 2016) :
 Muntingia L.</t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (16 octobre 2016)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (16 octobre 2016) :
 Dicraspidia
 Dicraspidia donnell-smithii
 Muntingia
